--- a/final project/research papers/research list.xlsx
+++ b/final project/research papers/research list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Classes\ECO 395M Data mining and statisical learning\eco395m_team_awesome\final project\research papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8CBB2A-67F6-42A5-BE96-39844D4DF752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F2B70-C812-49AF-BD3E-8E4E9E8F4DEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-630" windowWidth="29040" windowHeight="15990" xr2:uid="{59A8254B-37E3-4C75-8DEB-BC58B3295CF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{59A8254B-37E3-4C75-8DEB-BC58B3295CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,10 +514,13 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="150.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -605,139 +608,214 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/final project/research papers/research list.xlsx
+++ b/final project/research papers/research list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Classes\ECO 395M Data mining and statisical learning\eco395m_team_awesome\final project\research papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F2B70-C812-49AF-BD3E-8E4E9E8F4DEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B65BD4-32A4-4C32-AC63-76F7CF4DE72B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{59A8254B-37E3-4C75-8DEB-BC58B3295CF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{59A8254B-37E3-4C75-8DEB-BC58B3295CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,98 +537,149 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -636,7 +687,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -644,7 +695,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -652,7 +703,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -660,7 +711,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -668,7 +719,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -676,39 +727,39 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -716,23 +767,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -740,7 +791,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -748,7 +799,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -756,15 +807,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -772,53 +823,56 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C43">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>